--- a/Documentation and designs/Sprint_info/Sprint11.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint11.xlsx
@@ -451,19 +451,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -474,6 +465,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -481,7 +481,7 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -496,76 +496,6 @@
       <font>
         <color theme="7" tint="-0.24994659260841701"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -666,7 +596,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1003,11 +932,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="379325552"/>
-        <c:axId val="379318888"/>
+        <c:axId val="279598920"/>
+        <c:axId val="279603624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="379325552"/>
+        <c:axId val="279598920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,7 +1039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379318888"/>
+        <c:crossAx val="279603624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1118,7 +1047,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="379318888"/>
+        <c:axId val="279603624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1092,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1222,7 +1150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379325552"/>
+        <c:crossAx val="279598920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1885,7 +1813,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,8 +1846,8 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2307,7 +2235,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2408,10 +2336,10 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="25">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2444,8 +2372,8 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
@@ -2476,8 +2404,8 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
@@ -2510,10 +2438,10 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="30">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2546,8 +2474,8 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="2" t="s">
         <v>52</v>
       </c>
@@ -2578,8 +2506,8 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
@@ -2612,10 +2540,10 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="30">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2625,10 +2553,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2646,12 +2574,12 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="2" t="s">
         <v>48</v>
       </c>
@@ -2684,8 +2612,8 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
@@ -2693,10 +2621,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2714,12 +2642,12 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
@@ -2750,10 +2678,10 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="30">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2788,8 +2716,8 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
@@ -2822,8 +2750,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
@@ -2869,59 +2797,59 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="2">
-        <f>SUM(G5:G17)</f>
+        <f t="shared" ref="G18:T18" si="1">SUM(G5:G17)</f>
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <f>SUM(H5:H17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <f>SUM(I5:I17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18" s="2">
-        <f>SUM(J5:J17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <f>SUM(K5:K17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L18" s="2">
-        <f>SUM(L5:L17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M18" s="2">
-        <f>SUM(M5:M17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <f>SUM(N5:N17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <f>SUM(O5:O17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <f>SUM(P5:P17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <f>SUM(Q5:Q17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R18" s="2">
-        <f>SUM(R5:R17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <f>SUM(S5:S17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T18" s="2">
-        <f>SUM(T5:T17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U18" s="2">
@@ -3012,59 +2940,59 @@
         <v>36</v>
       </c>
       <c r="G20" s="2">
-        <f>F20-SUM(G5:G17)</f>
+        <f t="shared" ref="G20:T20" si="2">F20-SUM(G5:G17)</f>
         <v>36</v>
       </c>
       <c r="H20" s="2">
-        <f>G20-SUM(H5:H17)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="I20" s="2">
-        <f>H20-SUM(I5:I17)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="J20" s="2">
-        <f>I20-SUM(J5:J17)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="K20" s="2">
-        <f>J20-SUM(K5:K17)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L20" s="2">
-        <f>K20-SUM(L5:L17)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="M20" s="2">
-        <f>L20-SUM(M5:M17)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="N20" s="2">
-        <f>M20-SUM(N5:N17)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="O20" s="2">
-        <f>N20-SUM(O5:O17)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="P20" s="2">
-        <f>O20-SUM(P5:P17)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="Q20" s="2">
-        <f>P20-SUM(Q5:Q17)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="R20" s="2">
-        <f>Q20-SUM(R5:R17)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="S20" s="2">
-        <f>R20-SUM(S5:S17)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="T20" s="2">
-        <f>S20-SUM(T5:T17)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="U20" s="10"/>
@@ -3111,40 +3039,40 @@
     <mergeCell ref="B8:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F10">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:U18">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F17">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F14">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation and designs/Sprint_info/Sprint11.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint11.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djnenadovic\Desktop\MATF\MasterAudioTechnologyFunctions\Documentation and designs\Sprint_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GIT\MasterAudioTechnologyFunctions\Documentation and designs\Sprint_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -627,7 +627,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sr-Latn-RS"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -774,7 +774,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B6F-4357-9072-E062BD4EF823}"/>
             </c:ext>
@@ -875,49 +875,49 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2B6F-4357-9072-E062BD4EF823}"/>
             </c:ext>
@@ -999,7 +999,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="sr-Latn-RS"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1036,7 +1036,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="279603624"/>
@@ -1116,7 +1116,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="sr-Latn-RS"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1147,7 +1147,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="279598920"/>
@@ -1198,7 +1198,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sr-Latn-RS"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1246,7 +1246,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sr-Latn-RS"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1813,7 +1813,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,13 +2156,13 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>38</v>
       </c>
@@ -2170,7 +2170,7 @@
       <c r="C1" s="23"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2234,24 +2234,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
@@ -2261,7 +2261,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>42604</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>53</v>
       </c>
@@ -2345,15 +2345,19 @@
       <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E5" s="2">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2368,26 +2372,30 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2">
         <f>E5-SUM(G5:T5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E6" s="2">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2">
+        <v>8</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2400,10 +2408,10 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2">
         <f t="shared" ref="U6:U18" si="0">E6-SUM(G6:T6)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="2" t="s">
@@ -2416,12 +2424,14 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2434,10 +2444,10 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>50</v>
       </c>
@@ -2447,18 +2457,22 @@
       <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E8" s="2">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>3</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2470,21 +2484,23 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E9" s="2">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -2492,7 +2508,9 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2">
+        <v>8</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2502,10 +2520,10 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="2" t="s">
@@ -2518,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2526,7 +2544,9 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2">
+        <v>2</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -2536,10 +2556,10 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>46</v>
       </c>
@@ -2556,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2564,7 +2584,9 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -2574,10 +2596,10 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="31"/>
       <c r="C12" s="2" t="s">
@@ -2611,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="31"/>
       <c r="C13" s="2" t="s">
@@ -2645,23 +2667,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="32"/>
       <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2674,10 +2700,10 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>39</v>
       </c>
@@ -2701,7 +2727,9 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2">
+        <v>2</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2712,10 +2740,10 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="31"/>
       <c r="C16" s="2" t="s">
@@ -2749,7 +2777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="32"/>
       <c r="C17" s="2" t="s">
@@ -2781,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -2802,7 +2830,7 @@
       </c>
       <c r="H18" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="1"/>
@@ -2810,19 +2838,19 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="1"/>
@@ -2854,10 +2882,10 @@
       </c>
       <c r="U18" s="2">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2927,7 +2955,7 @@
       </c>
       <c r="U19" s="10"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2945,83 +2973,83 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="S20" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="T20" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="U20" s="10"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -3038,7 +3066,7 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5:F10">
+  <conditionalFormatting sqref="F5:F11">
     <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
@@ -3065,7 +3093,7 @@
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F14">
+  <conditionalFormatting sqref="F12:F14">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
@@ -3094,7 +3122,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a valid name" promptTitle="Names" prompt="Enter assignee">
           <x14:formula1>
-            <xm:f>[1]Roster!#REF!</xm:f>
+            <xm:f>'H:\GIT\MasterAudioTechnologyFunctions\Documentation and designs\Sprint_info\[Sprint10.xlsx]Roster'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D11:D17</xm:sqref>
         </x14:dataValidation>
@@ -3112,7 +3140,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
